--- a/Documents/모델링/DTO 멤버 뽑아내기.xlsx
+++ b/Documents/모델링/DTO 멤버 뽑아내기.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="User_group" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="MassageDTO" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Coupon" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="buyer" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Receiver_info" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="category" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="class" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="curriculm" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="reply" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="bank_name" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="bank" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="jjim" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="bank" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bank_name" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="buyer" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="category" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="class" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="coupon" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="curriculum" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="jjim" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="message" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="receiver_info" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="reply" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="subject" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="user" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="user_group" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,14 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">bank</t>
+  </si>
   <si>
     <t xml:space="preserve">class name</t>
   </si>
   <si>
-    <t xml:space="preserve">UserDTO</t>
-  </si>
-  <si>
     <t xml:space="preserve">column</t>
   </si>
   <si>
@@ -55,18 +56,243 @@
     <t xml:space="preserve">for DTO</t>
   </si>
   <si>
+    <t xml:space="preserve">bank_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private classDTO classinfo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_name_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private bank_nameDTO bankname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(10) unsigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private userdto user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_tuition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private classdto classinfo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cre_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private userdto creator;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cover_img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material_img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private categorydto category;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curriculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thumbnail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major_topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(10) unsigned zerofill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private userdto send_user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receiver_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private userdto receiver_user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(10000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint(3) unsigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private int read_yn;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receiver_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delievery_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buyer_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private buyerdto buyer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private int group;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reply_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curriculm_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private curriculmdto curriculm;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar(20)</t>
-  </si>
-  <si>
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
     <t xml:space="preserve">varchar(15)</t>
   </si>
   <si>
@@ -79,259 +305,28 @@
     <t xml:space="preserve">creator_url</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar(300)</t>
-  </si>
-  <si>
     <t xml:space="preserve">profile_img</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar(100)</t>
-  </si>
-  <si>
     <t xml:space="preserve">nickname</t>
   </si>
   <si>
     <t xml:space="preserve">varchar(21)</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
     <t xml:space="preserve">int(11) unsigned zerofill</t>
   </si>
   <si>
     <t xml:space="preserve">joinDate</t>
   </si>
   <si>
-    <t xml:space="preserve">timestamp</t>
+    <t xml:space="preserve">user_group_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private user_groupdto user_group;</t>
   </si>
   <si>
     <t xml:space="preserve">user_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private User_groupDTO user_group;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_groupDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join </t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MassageDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(10) unsigned zerofill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private UserDTO send_user;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receiver_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private UserDTO receiver_user;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(10000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint(3) unsigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CouponDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private UserDTO user;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(10) unsigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BuyerDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receiver_info_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private Receiver_infoDTO receiver_info;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_tuition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private ClassDTO class_no;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver_infoDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delievery_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(1000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoryDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cre_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private UserDTO cre_user;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cover_img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(5000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material_img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material_content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private CategoryDTO category;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CurriculmDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thumbnail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">major_topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private ClassDTO class;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReplyDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reply_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curriculm_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private CurriculmDTO curriculm;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank_nameDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank_name_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private Bank_nameDTO bank_name;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JjimDTO</t>
   </si>
 </sst>
 </file>
@@ -510,8 +505,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -597,7 +592,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -608,8 +603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,13 +665,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -687,8 +682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,7 +755,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -771,8 +766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,13 +828,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -850,8 +845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,7 +918,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -934,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,13 +991,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1013,8 +1008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1086,7 +1081,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1097,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,13 +1154,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1176,8 +1171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,7 +1244,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1260,8 +1255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,13 +1317,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1339,8 +1334,171 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ㅡ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>key input 1:PK 2:FK</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="바탕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1522800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="bf9000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ㅡ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="bf9000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>auto</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:latin typeface="바탕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,7 +1570,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1423,8 +1581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,13 +1643,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1502,8 +1660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,7 +1733,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1586,8 +1744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5027400" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,13 +1806,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1665,8 +1823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2872080" y="110520"/>
-          <a:ext cx="1582920" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1896,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1749,8 +1907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,13 +1969,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1828,8 +1986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,7 +2059,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1912,8 +2070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,13 +2132,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -1991,8 +2149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,7 +2222,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2075,8 +2233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,13 +2295,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2154,8 +2312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,7 +2385,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2238,8 +2396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,13 +2458,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2317,8 +2475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2390,7 +2548,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2401,8 +2559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2463,13 +2621,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2480,8 +2638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2553,7 +2711,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2564,8 +2722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4576680" y="43920"/>
-          <a:ext cx="789480" cy="306360"/>
+          <a:off x="4689000" y="43920"/>
+          <a:ext cx="789120" cy="306360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2626,13 +2784,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
@@ -2643,8 +2801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2539440" y="110520"/>
-          <a:ext cx="1464840" cy="239760"/>
+          <a:off x="2539800" y="110520"/>
+          <a:ext cx="1576440" cy="239760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,10 +2868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I13"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4:F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2721,9 +2879,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
@@ -2732,12 +2890,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>BankDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2937,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String id;</v>
+        <v>private String bank_number;</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -2782,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -2790,138 +2954,218 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String pass;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private int group;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String name;</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FK</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String email;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>FK</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F8" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String creator_url;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F9" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String profile_img;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F10" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String nickname;</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F11" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int number;</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F12" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private TIMESTAMP joinDate;</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2940,10 +3184,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="F4:F13 D3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2951,22 +3195,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>Receiver_InfoDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3239,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3004,13 +3255,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3018,15 +3270,15 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String content;</v>
+        <v>private String name;</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3034,15 +3286,15 @@
       </c>
       <c r="F6" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private TIMESTAMP date;</v>
+        <v>private int number;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3050,12 +3302,12 @@
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  group;</v>
+        <v>private String address1;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -3066,60 +3318,62 @@
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String reply_id;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private String address2;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String address3;</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String delievery_msg;</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v>FK</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="str">
-        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
+      <c r="F11" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3129,57 +3383,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3198,10 +3559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F4:F13 A3"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3209,22 +3570,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>ReplyDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3614,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3262,13 +3630,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3276,72 +3645,95 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String name;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>private String content;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F6" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+        <v>private TIMESTAMP date;</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F7" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+        <v>private String reply_id;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+        <v>FK</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
+        <v>FK</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3352,8 +3744,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3363,57 +3755,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3432,10 +3931,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="F4:F13 E3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3443,22 +3942,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>SubjectDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,12 +3984,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3494,15 +4000,16 @@
       </c>
       <c r="F4" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String bank_number;</v>
-      </c>
+        <v>private int no;</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3510,33 +4017,31 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  group;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private String subject;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String url;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3546,12 +4051,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3562,8 +4067,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3574,8 +4079,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3586,8 +4091,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3598,8 +4103,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3609,57 +4114,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3678,10 +4290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="F4:F13 E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3689,22 +4301,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>UserDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,10 +4345,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3740,48 +4359,424 @@
       </c>
       <c r="F4" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String id;</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String pass;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String name;</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String email;</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String creator_url;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String profile_img;</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String nickname;</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private int number;</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private TIMESTAMP joinDate;</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v>FK</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>User_GroupDTO</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v>PK</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String name;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3792,8 +4787,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3804,8 +4799,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3816,8 +4811,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3828,8 +4823,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3840,8 +4835,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -3851,57 +4846,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3920,10 +5022,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K1048576"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="F4:F13 D4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3931,22 +5033,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>Bank_NameDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,25 +5074,13 @@
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -3996,13 +5093,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4020,10 +5118,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F6" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6"/>
@@ -4032,10 +5127,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F7" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6"/>
@@ -4044,10 +5136,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F8" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6"/>
@@ -4056,10 +5145,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F9" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6"/>
@@ -4068,10 +5154,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F10" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6"/>
@@ -4080,10 +5163,7 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F11" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
@@ -4092,125 +5172,137 @@
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F12" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="F13" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="F14" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="F15" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J15" s="0"/>
-      <c r="K15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="F16" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="F17" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="F18" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="F19" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="F20" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="F21" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4228,33 +5320,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F4:F13 C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>BuyerDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,12 +5373,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4292,13 +5391,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4308,33 +5408,31 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private int last_tuition;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4342,44 +5440,42 @@
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String content;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private TIMESTAMP order_date;</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private TIMESTAMP send_time;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>FK</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F9" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  read_yn;</v>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4390,8 +5486,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4402,8 +5498,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4413,57 +5509,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4482,10 +5685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="F4:F13 E4"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4493,22 +5696,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>CategoryDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,30 +5738,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
+        <v>PK</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private int no;</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4559,44 +5771,36 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int sale1;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>private String name;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F6" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int sale2;</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int sale3;</v>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4607,8 +5811,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4619,8 +5823,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4631,8 +5835,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4643,8 +5847,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -4654,57 +5858,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4723,10 +6034,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="F4:F13 A6"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4734,22 +6045,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>ClassDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,10 +6089,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4787,13 +6105,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4803,33 +6122,31 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String cover_img;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4837,15 +6154,15 @@
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int last_tuition;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private String title;</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -4853,114 +6170,217 @@
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private TIMESTAMP order_date;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private String detail_category;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String content;</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String material_img;</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private String material_content;</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private int expiration;</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private int tuition;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v>FK</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="str">
-        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="str">
-        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="str">
-        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4979,10 +6399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="F4:F13 D4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4990,22 +6410,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>CouponDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,10 +6454,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5041,15 +6468,16 @@
       </c>
       <c r="F4" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int no;</v>
-      </c>
+        <v>private String user_id;</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5057,15 +6485,15 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String name;</v>
+        <v>private int sale1;</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5073,15 +6501,15 @@
       </c>
       <c r="F6" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int number;</v>
+        <v>private int sale2;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5089,60 +6517,48 @@
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String address1;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>private int sale3;</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String address2;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F9" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String address3;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F10" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String delievery_msg;</v>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5153,8 +6569,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5164,57 +6580,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5233,10 +6756,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="F4:F13 B4"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5244,22 +6767,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>CurriculumDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,8 +6799,8 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -5281,10 +6811,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5297,13 +6827,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5311,36 +6842,46 @@
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String name;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>private String thumbnail;</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F6" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+        <v>private String major_topic;</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private  ;</v>
+        <v>FK</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5351,8 +6892,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5363,8 +6904,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5375,8 +6916,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5387,8 +6928,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5398,57 +6939,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5467,10 +7115,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F4:F13"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5478,22 +7126,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>JjimDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,10 +7170,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5531,13 +7186,14 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5547,206 +7203,257 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String cover_img;</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>FK</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String title;</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String detail_category;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F9" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String content;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F10" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String material_img;</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F11" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String material_content;</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F12" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int expiration;</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
       <c r="F13" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private int tuition;</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5765,10 +7472,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K28"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4:F13"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5776,22 +7483,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.6"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">PROPER($C$1)&amp;"DTO"</f>
+        <v>MessageDTO</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,12 +7525,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5829,45 +7543,50 @@
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
         <v>private int no;</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String thumbnail;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FK</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String major_topic;</v>
+        <v>FK</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5875,15 +7594,15 @@
       </c>
       <c r="F7" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String subject;</v>
+        <v>private String content;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
@@ -5891,46 +7610,39 @@
       </c>
       <c r="F8" s="7" t="str">
         <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String subject2;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private TIMESTAMP send_time;</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
       </c>
-      <c r="F9" s="7" t="str">
-        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
-        <v>private String subject3;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
-        <v>FK</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5941,8 +7653,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7" t="str">
         <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
         <v/>
@@ -5952,57 +7664,164 @@
         <v>private  ;</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f aca="false">IF(E:E=1,"PK",IF(E:E=2,"FK",""))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">"private "&amp;IF(LEFT(C:C,7)="varchar","String",IF(C:C="TIMESTAMP","TIMESTAMP",IF(LEFT(C:C,3)="INT","int","")))&amp;" "&amp;B:B&amp;";"</f>
+        <v>private  ;</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0"/>
-      <c r="K24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0"/>
-      <c r="K26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0"/>
-      <c r="K28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
